--- a/有好货页面/id_1908061/webpack01/需求表格.xlsx
+++ b/有好货页面/id_1908061/webpack01/需求表格.xlsx
@@ -99,9 +99,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -114,13 +114,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -129,7 +122,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,45 +153,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,19 +182,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -248,23 +211,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,199 +279,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,16 +494,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -563,11 +557,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,17 +583,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,10 +597,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -615,133 +609,133 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1073,7 +1067,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
@@ -1131,7 +1125,7 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1146,25 +1140,25 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1172,7 +1166,7 @@
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="1"/>
@@ -1214,7 +1208,7 @@
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="1"/>
